--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,40 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +711,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +746,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +781,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +835,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +936,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,22 +987,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -964,8 +1018,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,13 +1033,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1072,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,11 +1085,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1103,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,8 +1138,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,22 +1173,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1122,37 +1208,49 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,22 +1278,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1209,22 +1313,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1488,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,11 +1505,11 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1383,22 +1523,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,22 +1593,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1470,28 +1628,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,22 +1702,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1733,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,8 +1768,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1617,8 +1803,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,19 +1838,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1675,22 +1873,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1704,19 +1908,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>281900</v>
+      </c>
+      <c r="E47" s="3">
         <v>281500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>281500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1733,8 +1943,14 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +1978,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +2013,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,23 +2083,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,23 +2153,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>282700</v>
+      </c>
+      <c r="F54" s="3">
         <v>282800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,23 +2222,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2253,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,13 +2288,19 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2034,8 +2308,8 @@
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2049,23 +2323,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2358,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,19 +2393,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>9700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>9700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,23 +2533,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,22 +2723,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,22 +2863,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>272400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>272300</v>
+      </c>
+      <c r="F76" s="3">
         <v>272600</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,28 +2933,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,22 +2973,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +3027,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +3058,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,22 +3233,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3287,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3318,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,20 +3388,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-281500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,22 +3578,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>283000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,22 +3648,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3177,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,25 +1015,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,13 +1066,13 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1091,8 +1125,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,25 +1219,28 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1214,16 +1257,19 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1286,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,25 +1333,28 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1319,25 +1371,28 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1511,8 +1581,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1529,25 +1599,28 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,25 +1675,28 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1634,31 +1713,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,25 +1790,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,8 +1864,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,23 +1940,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,25 +1978,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1914,22 +2016,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E47" s="3">
         <v>281900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>281500</v>
       </c>
       <c r="F47" s="3">
         <v>281500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>281500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1949,8 +2054,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,26 +2206,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2282,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>283400</v>
+      </c>
+      <c r="E54" s="3">
         <v>282400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>282700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>282800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2354,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,25 +2428,28 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2329,26 +2466,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,8 +2559,8 @@
       <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>9700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2694,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,25 +2900,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="E72" s="3">
         <v>-9200</v>
       </c>
       <c r="F72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,25 +3052,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>272400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>272300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>272600</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,31 +3128,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,25 +3171,28 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,25 +3453,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,12 +3635,12 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>-281500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>283000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,25 +3903,28 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -1021,8 +1021,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1227,8 +1227,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1266,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1341,8 +1341,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>800</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1379,8 +1379,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>800</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1607,8 +1607,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>800</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1683,8 +1683,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>800</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -3060,8 +3060,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>273100</v>
       </c>
       <c r="E76" s="3">
         <v>272400</v>
@@ -3179,8 +3179,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>800</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,14 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +766,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +810,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +854,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +876,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +916,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +960,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +1004,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1048,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,13 +1067,15 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1031,16 +1084,16 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1107,14 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,16 +1128,16 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1151,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1173,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,22 +1184,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1213,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1257,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,31 +1301,37 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,22 +1345,28 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1289,17 +1380,23 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1433,37 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1477,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1521,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1565,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1609,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1653,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1697,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,22 +1712,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1741,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1785,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1829,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1873,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1922,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1944,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1962,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +2002,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +2046,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +2090,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,28 +2134,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1981,31 +2178,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2019,29 +2222,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>287900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>284900</v>
+      </c>
+      <c r="F47" s="3">
         <v>282800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>281900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>281500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>281500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2266,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2310,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2354,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2398,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,32 +2442,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2486,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2530,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>288100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>285300</v>
+      </c>
+      <c r="F54" s="3">
         <v>283400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>282400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>282700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>282800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2574,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2596,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,32 +2614,34 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2654,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,22 +2698,28 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2454,8 +2727,8 @@
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2469,32 +2742,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2786,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2830,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,11 +2853,11 @@
       <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2874,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2918,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2962,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +3006,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3050,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3072,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3112,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3156,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3200,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3244,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3288,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3332,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3376,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3420,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>274800</v>
+      </c>
+      <c r="F76" s="3">
         <v>273100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>272400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>272300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>272600</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3464,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3508,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3557,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3601,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3623,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3663,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3707,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3751,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3795,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3839,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,8 +3883,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3465,22 +3898,22 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3927,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3949,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3989,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4033,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,29 +4077,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-281500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +4121,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +4143,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +4183,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4227,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4271,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4315,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3845,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>283000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4359,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,31 +4403,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4445,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,16 +1095,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1090,13 +1117,13 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1134,13 +1164,13 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,25 +1218,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,34 +1347,37 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1351,25 +1394,28 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-600</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1386,8 +1432,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,34 +1488,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1483,34 +1535,37 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,25 +1782,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1747,34 +1817,37 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,34 +1911,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1879,40 +1958,43 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,34 +2050,35 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,32 +2236,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,34 +2283,37 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2228,31 +2330,34 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E47" s="3">
         <v>287900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>284900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>282800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>281900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>281500</v>
       </c>
       <c r="I47" s="3">
         <v>281500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>281500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2272,8 +2377,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,35 +2565,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,35 +2659,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E54" s="3">
         <v>288100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>285300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>283400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>282400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>282700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>282800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,35 +2746,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,34 +2838,37 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2748,35 +2885,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2859,8 +3005,8 @@
       <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>9700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,35 +3167,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,34 +3421,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9200</v>
       </c>
       <c r="H72" s="3">
         <v>-9200</v>
       </c>
       <c r="I72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,34 +3609,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>38400</v>
       </c>
       <c r="E76" s="3">
+        <v>276700</v>
+      </c>
+      <c r="F76" s="3">
         <v>274800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>273100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>272400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>272300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>272600</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,40 +3703,43 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,34 +3755,37 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,34 +4103,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,32 +4310,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-281500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,13 +4564,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-235200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4342,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>283000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,34 +4658,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>BMAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,19 +1122,20 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1120,13 +1147,13 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1167,13 +1197,13 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,28 +1252,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,37 +1390,40 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1397,28 +1440,31 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1435,8 +1481,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,37 +1540,40 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1538,37 +1590,40 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,28 +1852,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1820,37 +1890,40 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,37 +1990,40 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1961,43 +2040,46 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,8 +2137,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2060,28 +2147,28 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2335,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2248,26 +2347,26 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,37 +2385,40 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2333,34 +2435,37 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E47" s="3">
         <v>51900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>287900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>284900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>282800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>281900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>281500</v>
       </c>
       <c r="J47" s="3">
         <v>281500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>281500</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,27 +2699,27 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2785,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E54" s="3">
         <v>52500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>288100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>285300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>283400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>282400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>282700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>282800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,38 +2877,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,37 +2975,40 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2888,38 +3025,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3008,8 +3154,8 @@
       <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>9700</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3325,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,37 +3595,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9200</v>
       </c>
       <c r="I72" s="3">
         <v>-9200</v>
       </c>
       <c r="J72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,37 +3795,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>38400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>276700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>274800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>273100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>272400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>272300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>272600</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,43 +3895,46 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,37 +3950,40 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,37 +4320,40 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,35 +4540,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-281500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,17 +4810,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-235200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4591,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>283000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,37 +4910,40 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
